--- a/Code/Results/Cases/Case_0_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_249/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2036223071077217</v>
+        <v>0.2424750669258486</v>
       </c>
       <c r="D2">
-        <v>0.1843158637167051</v>
+        <v>0.2064003509529613</v>
       </c>
       <c r="E2">
-        <v>0.1026081177357909</v>
+        <v>0.1663423400497983</v>
       </c>
       <c r="F2">
-        <v>0.4934036304130061</v>
+        <v>1.315347342557217</v>
       </c>
       <c r="G2">
-        <v>0.2475329533857789</v>
+        <v>0.7166479277978084</v>
       </c>
       <c r="H2">
-        <v>0.2483543192693034</v>
+        <v>0.8322969081920206</v>
       </c>
       <c r="I2">
-        <v>0.3326146747467114</v>
+        <v>0.9077249771838432</v>
       </c>
       <c r="J2">
-        <v>0.08244363531696308</v>
+        <v>0.1802786961482212</v>
       </c>
       <c r="K2">
-        <v>5.151174164972076</v>
+        <v>1.984705554895072</v>
       </c>
       <c r="L2">
-        <v>0.1078214475953132</v>
+        <v>0.2151901350040646</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9930149966847921</v>
+        <v>3.100743789450632</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1832115428174177</v>
+        <v>0.2375028024586499</v>
       </c>
       <c r="D3">
-        <v>0.165019960713721</v>
+        <v>0.2013032869760707</v>
       </c>
       <c r="E3">
-        <v>0.09452539324205844</v>
+        <v>0.1648570631337982</v>
       </c>
       <c r="F3">
-        <v>0.4898139585813297</v>
+        <v>1.328412596869562</v>
       </c>
       <c r="G3">
-        <v>0.2512236709562998</v>
+        <v>0.727730312184633</v>
       </c>
       <c r="H3">
-        <v>0.2576282348769183</v>
+        <v>0.842407897739001</v>
       </c>
       <c r="I3">
-        <v>0.3317995724630904</v>
+        <v>0.9174652689456764</v>
       </c>
       <c r="J3">
-        <v>0.07865901655971186</v>
+        <v>0.1804069674720736</v>
       </c>
       <c r="K3">
-        <v>4.487033644921098</v>
+        <v>1.766695578561496</v>
       </c>
       <c r="L3">
-        <v>0.1015024606551407</v>
+        <v>0.2145916048839638</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.019828540320518</v>
+        <v>3.145108458399278</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1707842013312302</v>
+        <v>0.2345216179930105</v>
       </c>
       <c r="D4">
-        <v>0.1532374613801011</v>
+        <v>0.1982205667129193</v>
       </c>
       <c r="E4">
-        <v>0.08964138513603359</v>
+        <v>0.1640004749258388</v>
       </c>
       <c r="F4">
-        <v>0.4890390830720861</v>
+        <v>1.337260014341915</v>
       </c>
       <c r="G4">
-        <v>0.2546360514700865</v>
+        <v>0.7351228804764744</v>
       </c>
       <c r="H4">
-        <v>0.2640205489364007</v>
+        <v>0.8490510191961889</v>
       </c>
       <c r="I4">
-        <v>0.3323205713820272</v>
+        <v>0.9240295970885768</v>
       </c>
       <c r="J4">
-        <v>0.07644322145953097</v>
+        <v>0.1805585059460455</v>
       </c>
       <c r="K4">
-        <v>4.079008133296497</v>
+        <v>1.632334867622376</v>
       </c>
       <c r="L4">
-        <v>0.09772887268012909</v>
+        <v>0.2142992589824786</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.04017357971189</v>
+        <v>3.174495473503839</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1657443478134724</v>
+        <v>0.2333249530443311</v>
       </c>
       <c r="D5">
-        <v>0.148450882243722</v>
+        <v>0.1969762600297997</v>
       </c>
       <c r="E5">
-        <v>0.08766984523152033</v>
+        <v>0.1636653930274292</v>
       </c>
       <c r="F5">
-        <v>0.489066806217302</v>
+        <v>1.341072836250262</v>
       </c>
       <c r="G5">
-        <v>0.2563007231619423</v>
+        <v>0.7382829981567127</v>
       </c>
       <c r="H5">
-        <v>0.2667946915191379</v>
+        <v>0.8518674884310968</v>
       </c>
       <c r="I5">
-        <v>0.3327783384199243</v>
+        <v>0.9268513112354491</v>
       </c>
       <c r="J5">
-        <v>0.07556624192594796</v>
+        <v>0.1806385917172122</v>
       </c>
       <c r="K5">
-        <v>3.912635821108893</v>
+        <v>1.577459891748731</v>
       </c>
       <c r="L5">
-        <v>0.09621662230108541</v>
+        <v>0.2141990775815827</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.049397144043439</v>
+        <v>3.187010183775627</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1649089006918842</v>
+        <v>0.2331273504922962</v>
       </c>
       <c r="D6">
-        <v>0.1476569306536248</v>
+        <v>0.196770368163186</v>
       </c>
       <c r="E6">
-        <v>0.08734357331189102</v>
+        <v>0.1636105993333459</v>
       </c>
       <c r="F6">
-        <v>0.489091704365876</v>
+        <v>1.341718477567156</v>
       </c>
       <c r="G6">
-        <v>0.2565932940662208</v>
+        <v>0.7388166395949938</v>
       </c>
       <c r="H6">
-        <v>0.2672653770134232</v>
+        <v>0.8523417643582221</v>
       </c>
       <c r="I6">
-        <v>0.3328688514215479</v>
+        <v>0.9273287121718958</v>
       </c>
       <c r="J6">
-        <v>0.07542215566050459</v>
+        <v>0.1806529980754163</v>
       </c>
       <c r="K6">
-        <v>3.885002813980691</v>
+        <v>1.568340707861751</v>
       </c>
       <c r="L6">
-        <v>0.09596702122060208</v>
+        <v>0.2141835887719665</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.050983821285712</v>
+        <v>3.189120794403607</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1707161359165354</v>
+        <v>0.2345054055106885</v>
       </c>
       <c r="D7">
-        <v>0.153172849579164</v>
+        <v>0.1982037370876526</v>
       </c>
       <c r="E7">
-        <v>0.08961472180334695</v>
+        <v>0.1639958991909687</v>
       </c>
       <c r="F7">
-        <v>0.4890380866569259</v>
+        <v>1.337310595660554</v>
       </c>
       <c r="G7">
-        <v>0.2546574102215899</v>
+        <v>0.7351649016993775</v>
       </c>
       <c r="H7">
-        <v>0.2640572849586036</v>
+        <v>0.8490885603913654</v>
       </c>
       <c r="I7">
-        <v>0.3323257658440681</v>
+        <v>0.924067057863688</v>
       </c>
       <c r="J7">
-        <v>0.076431290548026</v>
+        <v>0.1805595117404089</v>
       </c>
       <c r="K7">
-        <v>4.076764825554733</v>
+        <v>1.631595292377199</v>
       </c>
       <c r="L7">
-        <v>0.09770837617981698</v>
+        <v>0.2142978310937167</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.040294250770259</v>
+        <v>3.174662068608257</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1965616466558373</v>
+        <v>0.2407458061142052</v>
       </c>
       <c r="D8">
-        <v>0.1776481372972825</v>
+        <v>0.2046332280699659</v>
       </c>
       <c r="E8">
-        <v>0.09980416143832116</v>
+        <v>0.16581875780874</v>
       </c>
       <c r="F8">
-        <v>0.4918594922648651</v>
+        <v>1.319680891285145</v>
       </c>
       <c r="G8">
-        <v>0.2485588980901454</v>
+        <v>0.720346954216204</v>
       </c>
       <c r="H8">
-        <v>0.2514031863097941</v>
+        <v>0.8356928933832393</v>
       </c>
       <c r="I8">
-        <v>0.3321145970256794</v>
+        <v>0.9109622178944257</v>
       </c>
       <c r="J8">
-        <v>0.08111556092850591</v>
+        <v>0.1803078373649569</v>
       </c>
       <c r="K8">
-        <v>4.922204365391678</v>
+        <v>1.909642322352568</v>
       </c>
       <c r="L8">
-        <v>0.1056198486989572</v>
+        <v>0.2149681952694849</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.001428105304853</v>
+        <v>3.115594775665855</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2481759593761694</v>
+        <v>0.2535477889160518</v>
       </c>
       <c r="D9">
-        <v>0.226237962012604</v>
+        <v>0.2176084131811962</v>
       </c>
       <c r="E9">
-        <v>0.1204639671425909</v>
+        <v>0.1698304751258455</v>
       </c>
       <c r="F9">
-        <v>0.5094859839404009</v>
+        <v>1.291662254932497</v>
       </c>
       <c r="G9">
-        <v>0.2463643684158257</v>
+        <v>0.6959653707740188</v>
       </c>
       <c r="H9">
-        <v>0.2324263358592447</v>
+        <v>0.8128759042197089</v>
       </c>
       <c r="I9">
-        <v>0.3403459950552943</v>
+        <v>0.889899680405577</v>
       </c>
       <c r="J9">
-        <v>0.09121466969041592</v>
+        <v>0.1803905429211099</v>
       </c>
       <c r="K9">
-        <v>6.580153787458755</v>
+        <v>2.450750767957175</v>
       </c>
       <c r="L9">
-        <v>0.1220362679475784</v>
+        <v>0.2168769773671642</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9580546383735253</v>
+        <v>3.016825054838364</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2868144842103391</v>
+        <v>0.2632917979076979</v>
       </c>
       <c r="D10">
-        <v>0.2624154922191906</v>
+        <v>0.2273591965795276</v>
       </c>
       <c r="E10">
-        <v>0.136135964086936</v>
+        <v>0.1730417211875697</v>
       </c>
       <c r="F10">
-        <v>0.5309150062508365</v>
+        <v>1.275078940004718</v>
       </c>
       <c r="G10">
-        <v>0.2516862787130947</v>
+        <v>0.680918426072374</v>
       </c>
       <c r="H10">
-        <v>0.2224802857400263</v>
+        <v>0.798217524768468</v>
       </c>
       <c r="I10">
-        <v>0.352457248102958</v>
+        <v>0.8772572619388583</v>
       </c>
       <c r="J10">
-        <v>0.099275212537556</v>
+        <v>0.1808011713499837</v>
       </c>
       <c r="K10">
-        <v>7.801344408507305</v>
+        <v>2.845603361750193</v>
       </c>
       <c r="L10">
-        <v>0.1347349982442907</v>
+        <v>0.2186391306503808</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.949207554351446</v>
+        <v>2.954694707323256</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3045838825828184</v>
+        <v>0.2677969314067639</v>
       </c>
       <c r="D11">
-        <v>0.279005642373491</v>
+        <v>0.2318412462856401</v>
       </c>
       <c r="E11">
-        <v>0.1433917148216395</v>
+        <v>0.1745593646504346</v>
       </c>
       <c r="F11">
-        <v>0.5427663898755739</v>
+        <v>1.268405280550468</v>
       </c>
       <c r="G11">
-        <v>0.2558453216661292</v>
+        <v>0.6746988246353567</v>
       </c>
       <c r="H11">
-        <v>0.218926860046345</v>
+        <v>0.7920063777566497</v>
       </c>
       <c r="I11">
-        <v>0.3594712642454567</v>
+        <v>0.8721221873420646</v>
       </c>
       <c r="J11">
-        <v>0.1031012748391333</v>
+        <v>0.1810636612890235</v>
       </c>
       <c r="K11">
-        <v>8.358321843703777</v>
+        <v>3.024611681306851</v>
       </c>
       <c r="L11">
-        <v>0.1406713382131741</v>
+        <v>0.219518403573673</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9508906795739591</v>
+        <v>2.928703460474381</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3113435250397742</v>
+        <v>0.2695132188805758</v>
       </c>
       <c r="D12">
-        <v>0.2853094557665088</v>
+        <v>0.2335450308488873</v>
       </c>
       <c r="E12">
-        <v>0.146159142575943</v>
+        <v>0.1751421759679381</v>
       </c>
       <c r="F12">
-        <v>0.5475800290947106</v>
+        <v>1.266003393746885</v>
       </c>
       <c r="G12">
-        <v>0.2576909932423987</v>
+        <v>0.6724338206400873</v>
       </c>
       <c r="H12">
-        <v>0.2177302172289686</v>
+        <v>0.7897201272066923</v>
       </c>
       <c r="I12">
-        <v>0.3623604240855087</v>
+        <v>0.8702663598307652</v>
       </c>
       <c r="J12">
-        <v>0.104574785198686</v>
+        <v>0.1811739162004002</v>
       </c>
       <c r="K12">
-        <v>8.569509551214935</v>
+        <v>3.092305804920329</v>
       </c>
       <c r="L12">
-        <v>0.1429440783782212</v>
+        <v>0.219862480498108</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.9524124342879219</v>
+        <v>2.919188638728613</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3098862958599682</v>
+        <v>0.2691431301724378</v>
       </c>
       <c r="D13">
-        <v>0.2839508213372994</v>
+        <v>0.2331778021459883</v>
       </c>
       <c r="E13">
-        <v>0.1455622179823983</v>
+        <v>0.1750162972567182</v>
       </c>
       <c r="F13">
-        <v>0.5465284480279848</v>
+        <v>1.266515108619245</v>
       </c>
       <c r="G13">
-        <v>0.2572811074377483</v>
+        <v>0.6729176122383578</v>
       </c>
       <c r="H13">
-        <v>0.2179811551964619</v>
+        <v>0.7902095858625771</v>
       </c>
       <c r="I13">
-        <v>0.3617275454194413</v>
+        <v>0.8706620978612918</v>
       </c>
       <c r="J13">
-        <v>0.1042563121089231</v>
+        <v>0.1811496884831669</v>
       </c>
       <c r="K13">
-        <v>8.524013310706778</v>
+        <v>3.077730845497797</v>
       </c>
       <c r="L13">
-        <v>0.1424534707221454</v>
+        <v>0.2197878838465357</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.9520443034580381</v>
+        <v>2.921223248066269</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3051393676303746</v>
+        <v>0.2679379259542998</v>
       </c>
       <c r="D14">
-        <v>0.279523816019065</v>
+        <v>0.2319812875937544</v>
       </c>
       <c r="E14">
-        <v>0.1436189854544345</v>
+        <v>0.1746071506389271</v>
       </c>
       <c r="F14">
-        <v>0.5431557424506934</v>
+        <v>1.268205164143879</v>
       </c>
       <c r="G14">
-        <v>0.2559916160690179</v>
+        <v>0.6745106714419791</v>
       </c>
       <c r="H14">
-        <v>0.2188253704055469</v>
+        <v>0.7918169679747038</v>
       </c>
       <c r="I14">
-        <v>0.3597041853719389</v>
+        <v>0.8719677285981646</v>
       </c>
       <c r="J14">
-        <v>0.1032219966068979</v>
+        <v>0.1810725146284753</v>
       </c>
       <c r="K14">
-        <v>8.375690539274103</v>
+        <v>3.030182795438918</v>
       </c>
       <c r="L14">
-        <v>0.1408578104368772</v>
+        <v>0.2195464885191711</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.9509977706416635</v>
+        <v>2.927914102418057</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3022358374492455</v>
+        <v>0.2672010396673841</v>
       </c>
       <c r="D15">
-        <v>0.2768150191306944</v>
+        <v>0.2312492341394545</v>
       </c>
       <c r="E15">
-        <v>0.1424313330163862</v>
+        <v>0.1743575912654336</v>
       </c>
       <c r="F15">
-        <v>0.5411330084958763</v>
+        <v>1.26925669204212</v>
       </c>
       <c r="G15">
-        <v>0.2552376643274386</v>
+        <v>0.6754982249901147</v>
       </c>
       <c r="H15">
-        <v>0.2193621635117537</v>
+        <v>0.7928101035884154</v>
       </c>
       <c r="I15">
-        <v>0.3584956926444676</v>
+        <v>0.8727790221200493</v>
       </c>
       <c r="J15">
-        <v>0.1025917147589439</v>
+        <v>0.1810266562859653</v>
       </c>
       <c r="K15">
-        <v>8.28487602132094</v>
+        <v>3.001046072724648</v>
       </c>
       <c r="L15">
-        <v>0.1398837054752065</v>
+        <v>0.2194000729131744</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.950473876012552</v>
+        <v>2.932055116634572</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2856573439769932</v>
+        <v>0.2629988245080881</v>
       </c>
       <c r="D16">
-        <v>0.2613341592129927</v>
+        <v>0.2270672053256817</v>
       </c>
       <c r="E16">
-        <v>0.1356644667570457</v>
+        <v>0.1729436781115936</v>
       </c>
       <c r="F16">
-        <v>0.5301847718077184</v>
+        <v>1.275532602605864</v>
       </c>
       <c r="G16">
-        <v>0.2514511959683361</v>
+        <v>0.6813375007756264</v>
       </c>
       <c r="H16">
-        <v>0.2227328335850842</v>
+        <v>0.7986326391553575</v>
       </c>
       <c r="I16">
-        <v>0.3520305473460041</v>
+        <v>0.8776052582916307</v>
       </c>
       <c r="J16">
-        <v>0.09902852309397758</v>
+        <v>0.1807855376807623</v>
       </c>
       <c r="K16">
-        <v>7.764979157432037</v>
+        <v>2.833892050888267</v>
       </c>
       <c r="L16">
-        <v>0.134350409447066</v>
+        <v>0.2185832263646361</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9492177530506751</v>
+        <v>2.956439083630769</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.275538403789696</v>
+        <v>0.2604393802764093</v>
       </c>
       <c r="D17">
-        <v>0.2518728101898517</v>
+        <v>0.2245134438115031</v>
       </c>
       <c r="E17">
-        <v>0.1315467419060248</v>
+        <v>0.1720908016090164</v>
       </c>
       <c r="F17">
-        <v>0.524023182811888</v>
+        <v>1.279605652419029</v>
       </c>
       <c r="G17">
-        <v>0.2495878435092536</v>
+        <v>0.6850800849506271</v>
       </c>
       <c r="H17">
-        <v>0.2250557832131435</v>
+        <v>0.8023216711126508</v>
       </c>
       <c r="I17">
-        <v>0.3484613082752261</v>
+        <v>0.8807238696319999</v>
       </c>
       <c r="J17">
-        <v>0.09688462944454557</v>
+        <v>0.1806569854434343</v>
       </c>
       <c r="K17">
-        <v>7.446454723937734</v>
+        <v>2.73118853664937</v>
       </c>
       <c r="L17">
-        <v>0.1309980522718206</v>
+        <v>0.218101971043005</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9499529725434854</v>
+        <v>2.971980358252154</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2697361829995657</v>
+        <v>0.2589740912657987</v>
       </c>
       <c r="D18">
-        <v>0.2464432398988521</v>
+        <v>0.2230489604604315</v>
       </c>
       <c r="E18">
-        <v>0.129190135211136</v>
+        <v>0.1716056024062524</v>
       </c>
       <c r="F18">
-        <v>0.5206756770169605</v>
+        <v>1.282030258750986</v>
       </c>
       <c r="G18">
-        <v>0.248678362753914</v>
+        <v>0.6872915613486441</v>
       </c>
       <c r="H18">
-        <v>0.2264826908718192</v>
+        <v>0.8044865185432002</v>
       </c>
       <c r="I18">
-        <v>0.3465489237470294</v>
+        <v>0.8825755878720614</v>
       </c>
       <c r="J18">
-        <v>0.09566639839844271</v>
+        <v>0.1805901719042424</v>
       </c>
       <c r="K18">
-        <v>7.263380407393129</v>
+        <v>2.67205883873703</v>
       </c>
       <c r="L18">
-        <v>0.1290847730621252</v>
+        <v>0.2178324785974155</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9509090310831709</v>
+        <v>2.981133109289885</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2677746396117726</v>
+        <v>0.2584791478608111</v>
       </c>
       <c r="D19">
-        <v>0.2446069315940775</v>
+        <v>0.2225538668063081</v>
       </c>
       <c r="E19">
-        <v>0.128394207071409</v>
+        <v>0.1714422434624545</v>
       </c>
       <c r="F19">
-        <v>0.5195753284844855</v>
+        <v>1.282865249782496</v>
       </c>
       <c r="G19">
-        <v>0.2483976873102165</v>
+        <v>0.6880504260068534</v>
       </c>
       <c r="H19">
-        <v>0.2269811399298405</v>
+        <v>0.805226884624588</v>
       </c>
       <c r="I19">
-        <v>0.3459250701495336</v>
+        <v>0.8832125012119576</v>
       </c>
       <c r="J19">
-        <v>0.095256430316077</v>
+        <v>0.1805687748197045</v>
       </c>
       <c r="K19">
-        <v>7.201415494962589</v>
+        <v>2.652028824089371</v>
       </c>
       <c r="L19">
-        <v>0.1284394765772134</v>
+        <v>0.2177424906725633</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9513224411162184</v>
+        <v>2.984268774089514</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2766137054489803</v>
+        <v>0.2607111310356629</v>
       </c>
       <c r="D20">
-        <v>0.2528786923237476</v>
+        <v>0.2247848445274769</v>
       </c>
       <c r="E20">
-        <v>0.1319838479771356</v>
+        <v>0.1721810382065705</v>
       </c>
       <c r="F20">
-        <v>0.5246585957708234</v>
+        <v>1.279163592287553</v>
       </c>
       <c r="G20">
-        <v>0.249769260021715</v>
+        <v>0.6846755884588021</v>
       </c>
       <c r="H20">
-        <v>0.2247990374180375</v>
+        <v>0.8019245151822147</v>
       </c>
       <c r="I20">
-        <v>0.3488265959878021</v>
+        <v>0.8803858869386119</v>
       </c>
       <c r="J20">
-        <v>0.09711129822036924</v>
+        <v>0.180669932711794</v>
       </c>
       <c r="K20">
-        <v>7.480348034735812</v>
+        <v>2.742127469058005</v>
       </c>
       <c r="L20">
-        <v>0.1313533606985899</v>
+        <v>0.2181524450155266</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9498190778989652</v>
+        <v>2.970303827811094</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.306532795193931</v>
+        <v>0.2682916454542976</v>
       </c>
       <c r="D21">
-        <v>0.2808235318182568</v>
+        <v>0.2323325568076058</v>
       </c>
       <c r="E21">
-        <v>0.1441892080101574</v>
+        <v>0.1747271072168601</v>
       </c>
       <c r="F21">
-        <v>0.5441373524189359</v>
+        <v>1.267705352505686</v>
       </c>
       <c r="G21">
-        <v>0.2563628504821693</v>
+        <v>0.6740403002796924</v>
       </c>
       <c r="H21">
-        <v>0.2185732836500378</v>
+        <v>0.791343055291641</v>
       </c>
       <c r="I21">
-        <v>0.3602920296849419</v>
+        <v>0.8715818245037639</v>
       </c>
       <c r="J21">
-        <v>0.1035251161391813</v>
+        <v>0.1810948880705681</v>
       </c>
       <c r="K21">
-        <v>8.419248604177994</v>
+        <v>3.044151354184635</v>
       </c>
       <c r="L21">
-        <v>0.141325806920868</v>
+        <v>0.219617090925702</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.9512806316878084</v>
+        <v>2.925939941987352</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3262675149199481</v>
+        <v>0.2733058706101019</v>
       </c>
       <c r="D22">
-        <v>0.2992135626227963</v>
+        <v>0.2373034190599981</v>
       </c>
       <c r="E22">
-        <v>0.1522825648875852</v>
+        <v>0.1764383698591203</v>
       </c>
       <c r="F22">
-        <v>0.5587787266960618</v>
+        <v>1.26094704669557</v>
       </c>
       <c r="G22">
-        <v>0.2622608807714499</v>
+        <v>0.6676155587955819</v>
       </c>
       <c r="H22">
-        <v>0.2153774591648983</v>
+        <v>0.7848108787374883</v>
       </c>
       <c r="I22">
-        <v>0.3691526784171373</v>
+        <v>0.8663450121667964</v>
       </c>
       <c r="J22">
-        <v>0.1078615831446612</v>
+        <v>0.1814358827389668</v>
       </c>
       <c r="K22">
-        <v>9.034495899786521</v>
+        <v>3.241000580089462</v>
       </c>
       <c r="L22">
-        <v>0.1479887383347034</v>
+        <v>0.2206390863870595</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.9574235007814735</v>
+        <v>2.898854847197725</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3157171003073529</v>
+        <v>0.2706242473656744</v>
       </c>
       <c r="D23">
-        <v>0.289386049432153</v>
+        <v>0.2346469451728836</v>
       </c>
       <c r="E23">
-        <v>0.1479517581967151</v>
+        <v>0.175520732192151</v>
       </c>
       <c r="F23">
-        <v>0.5507813706465328</v>
+        <v>1.264487207507251</v>
       </c>
       <c r="G23">
-        <v>0.2589603701286123</v>
+        <v>0.6709963325893185</v>
       </c>
       <c r="H23">
-        <v>0.2169999946478427</v>
+        <v>0.788262122751199</v>
       </c>
       <c r="I23">
-        <v>0.3642926343518056</v>
+        <v>0.8690926353940327</v>
       </c>
       <c r="J23">
-        <v>0.1055332778352778</v>
+        <v>0.1812481085413395</v>
       </c>
       <c r="K23">
-        <v>8.705955999675325</v>
+        <v>3.135989379807597</v>
       </c>
       <c r="L23">
-        <v>0.1444186689188314</v>
+        <v>0.2200877193873083</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.9536480793343571</v>
+        <v>2.913135721910223</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2761275141646848</v>
+        <v>0.2605882532905213</v>
       </c>
       <c r="D24">
-        <v>0.2524239023987178</v>
+        <v>0.2246621327041112</v>
       </c>
       <c r="E24">
-        <v>0.1317861990294205</v>
+        <v>0.1721402262547329</v>
       </c>
       <c r="F24">
-        <v>0.5243707203298058</v>
+        <v>1.279363189282414</v>
       </c>
       <c r="G24">
-        <v>0.2496867392470676</v>
+        <v>0.6848582750255119</v>
       </c>
       <c r="H24">
-        <v>0.2249148281582478</v>
+        <v>0.8021039324057213</v>
       </c>
       <c r="I24">
-        <v>0.3486610157856376</v>
+        <v>0.8805385058059514</v>
       </c>
       <c r="J24">
-        <v>0.09700877678856301</v>
+        <v>0.1806640571559228</v>
       </c>
       <c r="K24">
-        <v>7.465024719107589</v>
+        <v>2.737182239279775</v>
       </c>
       <c r="L24">
-        <v>0.1311926821774279</v>
+        <v>0.2181296033405218</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9498779550962695</v>
+        <v>2.971061108641095</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2340983652439519</v>
+        <v>0.2500246725670792</v>
       </c>
       <c r="D25">
-        <v>0.2130180133939064</v>
+        <v>0.2140595976431285</v>
       </c>
       <c r="E25">
-        <v>0.1147944062524218</v>
+        <v>0.1686986776733015</v>
       </c>
       <c r="F25">
-        <v>0.5033126739841407</v>
+        <v>1.2985397488901</v>
       </c>
       <c r="G25">
-        <v>0.2458149694052807</v>
+        <v>0.7020590035659353</v>
       </c>
       <c r="H25">
-        <v>0.2368915710508475</v>
+        <v>0.8186788634416473</v>
       </c>
       <c r="I25">
-        <v>0.337114645840245</v>
+        <v>0.8951007145294376</v>
       </c>
       <c r="J25">
-        <v>0.08837647344264354</v>
+        <v>0.1803066262632598</v>
       </c>
       <c r="K25">
-        <v>6.13132825349237</v>
+        <v>2.304828220775619</v>
       </c>
       <c r="L25">
-        <v>0.1174899101394402</v>
+        <v>0.2162972439707005</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9659738650659051</v>
+        <v>3.041714757884634</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_249/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_249/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2424750669258486</v>
+        <v>0.2036223071076648</v>
       </c>
       <c r="D2">
-        <v>0.2064003509529613</v>
+        <v>0.1843158637167903</v>
       </c>
       <c r="E2">
-        <v>0.1663423400497983</v>
+        <v>0.1026081177358051</v>
       </c>
       <c r="F2">
-        <v>1.315347342557217</v>
+        <v>0.493403630412999</v>
       </c>
       <c r="G2">
-        <v>0.7166479277978084</v>
+        <v>0.247532953385722</v>
       </c>
       <c r="H2">
-        <v>0.8322969081920206</v>
+        <v>0.2483543192692963</v>
       </c>
       <c r="I2">
-        <v>0.9077249771838432</v>
+        <v>0.3326146747467398</v>
       </c>
       <c r="J2">
-        <v>0.1802786961482212</v>
+        <v>0.08244363531693466</v>
       </c>
       <c r="K2">
-        <v>1.984705554895072</v>
+        <v>5.151174164972247</v>
       </c>
       <c r="L2">
-        <v>0.2151901350040646</v>
+        <v>0.1078214475953061</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.100743789450632</v>
+        <v>0.9930149966847495</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2375028024586499</v>
+        <v>0.1832115428172756</v>
       </c>
       <c r="D3">
-        <v>0.2013032869760707</v>
+        <v>0.1650199607134226</v>
       </c>
       <c r="E3">
-        <v>0.1648570631337982</v>
+        <v>0.09452539324203002</v>
       </c>
       <c r="F3">
-        <v>1.328412596869562</v>
+        <v>0.4898139585813297</v>
       </c>
       <c r="G3">
-        <v>0.727730312184633</v>
+        <v>0.2512236709563069</v>
       </c>
       <c r="H3">
-        <v>0.842407897739001</v>
+        <v>0.257628234877032</v>
       </c>
       <c r="I3">
-        <v>0.9174652689456764</v>
+        <v>0.3317995724630975</v>
       </c>
       <c r="J3">
-        <v>0.1804069674720736</v>
+        <v>0.07865901655971541</v>
       </c>
       <c r="K3">
-        <v>1.766695578561496</v>
+        <v>4.487033644920928</v>
       </c>
       <c r="L3">
-        <v>0.2145916048839638</v>
+        <v>0.1015024606551904</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.145108458399278</v>
+        <v>1.019828540320475</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2345216179930105</v>
+        <v>0.1707842013314007</v>
       </c>
       <c r="D4">
-        <v>0.1982205667129193</v>
+        <v>0.1532374613801153</v>
       </c>
       <c r="E4">
-        <v>0.1640004749258388</v>
+        <v>0.08964138513601938</v>
       </c>
       <c r="F4">
-        <v>1.337260014341915</v>
+        <v>0.4890390830720861</v>
       </c>
       <c r="G4">
-        <v>0.7351228804764744</v>
+        <v>0.2546360514701504</v>
       </c>
       <c r="H4">
-        <v>0.8490510191961889</v>
+        <v>0.2640205489363936</v>
       </c>
       <c r="I4">
-        <v>0.9240295970885768</v>
+        <v>0.3323205713820272</v>
       </c>
       <c r="J4">
-        <v>0.1805585059460455</v>
+        <v>0.07644322145959492</v>
       </c>
       <c r="K4">
-        <v>1.632334867622376</v>
+        <v>4.079008133296327</v>
       </c>
       <c r="L4">
-        <v>0.2142992589824786</v>
+        <v>0.09772887268006514</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.174495473503839</v>
+        <v>1.040173579711819</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2333249530443311</v>
+        <v>0.165744347813245</v>
       </c>
       <c r="D5">
-        <v>0.1969762600297997</v>
+        <v>0.148450882243722</v>
       </c>
       <c r="E5">
-        <v>0.1636653930274292</v>
+        <v>0.08766984523154164</v>
       </c>
       <c r="F5">
-        <v>1.341072836250262</v>
+        <v>0.4890668062172949</v>
       </c>
       <c r="G5">
-        <v>0.7382829981567127</v>
+        <v>0.2563007231619281</v>
       </c>
       <c r="H5">
-        <v>0.8518674884310968</v>
+        <v>0.2667946915191379</v>
       </c>
       <c r="I5">
-        <v>0.9268513112354491</v>
+        <v>0.3327783384199101</v>
       </c>
       <c r="J5">
-        <v>0.1806385917172122</v>
+        <v>0.07556624192595862</v>
       </c>
       <c r="K5">
-        <v>1.577459891748731</v>
+        <v>3.912635821108836</v>
       </c>
       <c r="L5">
-        <v>0.2141990775815827</v>
+        <v>0.09621662230102146</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.187010183775627</v>
+        <v>1.04939714404351</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2331273504922962</v>
+        <v>0.1649089006919553</v>
       </c>
       <c r="D6">
-        <v>0.196770368163186</v>
+        <v>0.1476569306536248</v>
       </c>
       <c r="E6">
-        <v>0.1636105993333459</v>
+        <v>0.08734357331190168</v>
       </c>
       <c r="F6">
-        <v>1.341718477567156</v>
+        <v>0.4890917043658476</v>
       </c>
       <c r="G6">
-        <v>0.7388166395949938</v>
+        <v>0.2565932940661497</v>
       </c>
       <c r="H6">
-        <v>0.8523417643582221</v>
+        <v>0.2672653770134161</v>
       </c>
       <c r="I6">
-        <v>0.9273287121718958</v>
+        <v>0.332868851421523</v>
       </c>
       <c r="J6">
-        <v>0.1806529980754163</v>
+        <v>0.07542215566057564</v>
       </c>
       <c r="K6">
-        <v>1.568340707861751</v>
+        <v>3.88500281398052</v>
       </c>
       <c r="L6">
-        <v>0.2141835887719665</v>
+        <v>0.09596702122060918</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.189120794403607</v>
+        <v>1.050983821285683</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2345054055106885</v>
+        <v>0.1707161359163081</v>
       </c>
       <c r="D7">
-        <v>0.1982037370876526</v>
+        <v>0.1531728495792777</v>
       </c>
       <c r="E7">
-        <v>0.1639958991909687</v>
+        <v>0.08961472180330787</v>
       </c>
       <c r="F7">
-        <v>1.337310595660554</v>
+        <v>0.4890380866569259</v>
       </c>
       <c r="G7">
-        <v>0.7351649016993775</v>
+        <v>0.2546574102215828</v>
       </c>
       <c r="H7">
-        <v>0.8490885603913654</v>
+        <v>0.2640572849587173</v>
       </c>
       <c r="I7">
-        <v>0.924067057863688</v>
+        <v>0.3323257658440717</v>
       </c>
       <c r="J7">
-        <v>0.1805595117404089</v>
+        <v>0.076431290548026</v>
       </c>
       <c r="K7">
-        <v>1.631595292377199</v>
+        <v>4.07676482555479</v>
       </c>
       <c r="L7">
-        <v>0.2142978310937167</v>
+        <v>0.09770837617975303</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.174662068608257</v>
+        <v>1.040294250770316</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2407458061142052</v>
+        <v>0.1965616466557663</v>
       </c>
       <c r="D8">
-        <v>0.2046332280699659</v>
+        <v>0.1776481372970551</v>
       </c>
       <c r="E8">
-        <v>0.16581875780874</v>
+        <v>0.09980416143827497</v>
       </c>
       <c r="F8">
-        <v>1.319680891285145</v>
+        <v>0.491859492264858</v>
       </c>
       <c r="G8">
-        <v>0.720346954216204</v>
+        <v>0.2485588980901952</v>
       </c>
       <c r="H8">
-        <v>0.8356928933832393</v>
+        <v>0.2514031863096804</v>
       </c>
       <c r="I8">
-        <v>0.9109622178944257</v>
+        <v>0.3321145970256794</v>
       </c>
       <c r="J8">
-        <v>0.1803078373649569</v>
+        <v>0.08111556092843841</v>
       </c>
       <c r="K8">
-        <v>1.909642322352568</v>
+        <v>4.922204365391678</v>
       </c>
       <c r="L8">
-        <v>0.2149681952694849</v>
+        <v>0.1056198486988436</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.115594775665855</v>
+        <v>1.001428105304853</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2535477889160518</v>
+        <v>0.2481759593764679</v>
       </c>
       <c r="D9">
-        <v>0.2176084131811962</v>
+        <v>0.2262379620124619</v>
       </c>
       <c r="E9">
-        <v>0.1698304751258455</v>
+        <v>0.1204639671426015</v>
       </c>
       <c r="F9">
-        <v>1.291662254932497</v>
+        <v>0.509485983940408</v>
       </c>
       <c r="G9">
-        <v>0.6959653707740188</v>
+        <v>0.2463643684158399</v>
       </c>
       <c r="H9">
-        <v>0.8128759042197089</v>
+        <v>0.2324263358592447</v>
       </c>
       <c r="I9">
-        <v>0.889899680405577</v>
+        <v>0.3403459950552801</v>
       </c>
       <c r="J9">
-        <v>0.1803905429211099</v>
+        <v>0.09121466969035907</v>
       </c>
       <c r="K9">
-        <v>2.450750767957175</v>
+        <v>6.580153787458812</v>
       </c>
       <c r="L9">
-        <v>0.2168769773671642</v>
+        <v>0.122036267947685</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.016825054838364</v>
+        <v>0.9580546383735395</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2632917979076979</v>
+        <v>0.2868144842103391</v>
       </c>
       <c r="D10">
-        <v>0.2273591965795276</v>
+        <v>0.2624154922191622</v>
       </c>
       <c r="E10">
-        <v>0.1730417211875697</v>
+        <v>0.1361359640869573</v>
       </c>
       <c r="F10">
-        <v>1.275078940004718</v>
+        <v>0.5309150062508365</v>
       </c>
       <c r="G10">
-        <v>0.680918426072374</v>
+        <v>0.2516862787130378</v>
       </c>
       <c r="H10">
-        <v>0.798217524768468</v>
+        <v>0.2224802857400334</v>
       </c>
       <c r="I10">
-        <v>0.8772572619388583</v>
+        <v>0.352457248102958</v>
       </c>
       <c r="J10">
-        <v>0.1808011713499837</v>
+        <v>0.09927521253752758</v>
       </c>
       <c r="K10">
-        <v>2.845603361750193</v>
+        <v>7.801344408507191</v>
       </c>
       <c r="L10">
-        <v>0.2186391306503808</v>
+        <v>0.1347349982443475</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.954694707323256</v>
+        <v>0.9492075543514318</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2677969314067639</v>
+        <v>0.3045838825830174</v>
       </c>
       <c r="D11">
-        <v>0.2318412462856401</v>
+        <v>0.2790056423733915</v>
       </c>
       <c r="E11">
-        <v>0.1745593646504346</v>
+        <v>0.1433917148216111</v>
       </c>
       <c r="F11">
-        <v>1.268405280550468</v>
+        <v>0.5427663898755526</v>
       </c>
       <c r="G11">
-        <v>0.6746988246353567</v>
+        <v>0.2558453216660013</v>
       </c>
       <c r="H11">
-        <v>0.7920063777566497</v>
+        <v>0.218926860046345</v>
       </c>
       <c r="I11">
-        <v>0.8721221873420646</v>
+        <v>0.3594712642454567</v>
       </c>
       <c r="J11">
-        <v>0.1810636612890235</v>
+        <v>0.1031012748391547</v>
       </c>
       <c r="K11">
-        <v>3.024611681306851</v>
+        <v>8.358321843703663</v>
       </c>
       <c r="L11">
-        <v>0.219518403573673</v>
+        <v>0.1406713382131883</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.928703460474381</v>
+        <v>0.9508906795739307</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2695132188805758</v>
+        <v>0.3113435250397742</v>
       </c>
       <c r="D12">
-        <v>0.2335450308488873</v>
+        <v>0.2853094557665798</v>
       </c>
       <c r="E12">
-        <v>0.1751421759679381</v>
+        <v>0.1461591425759607</v>
       </c>
       <c r="F12">
-        <v>1.266003393746885</v>
+        <v>0.5475800290946751</v>
       </c>
       <c r="G12">
-        <v>0.6724338206400873</v>
+        <v>0.2576909932423987</v>
       </c>
       <c r="H12">
-        <v>0.7897201272066923</v>
+        <v>0.2177302172289544</v>
       </c>
       <c r="I12">
-        <v>0.8702663598307652</v>
+        <v>0.3623604240854945</v>
       </c>
       <c r="J12">
-        <v>0.1811739162004002</v>
+        <v>0.1045747851987571</v>
       </c>
       <c r="K12">
-        <v>3.092305804920329</v>
+        <v>8.569509551215049</v>
       </c>
       <c r="L12">
-        <v>0.219862480498108</v>
+        <v>0.1429440783782354</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.919188638728613</v>
+        <v>0.9524124342879219</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2691431301724378</v>
+        <v>0.3098862958599682</v>
       </c>
       <c r="D13">
-        <v>0.2331778021459883</v>
+        <v>0.2839508213371857</v>
       </c>
       <c r="E13">
-        <v>0.1750162972567182</v>
+        <v>0.1455622179823948</v>
       </c>
       <c r="F13">
-        <v>1.266515108619245</v>
+        <v>0.5465284480279706</v>
       </c>
       <c r="G13">
-        <v>0.6729176122383578</v>
+        <v>0.2572811074376773</v>
       </c>
       <c r="H13">
-        <v>0.7902095858625771</v>
+        <v>0.2179811551964619</v>
       </c>
       <c r="I13">
-        <v>0.8706620978612918</v>
+        <v>0.3617275454194342</v>
       </c>
       <c r="J13">
-        <v>0.1811496884831669</v>
+        <v>0.1042563121089159</v>
       </c>
       <c r="K13">
-        <v>3.077730845497797</v>
+        <v>8.524013310706891</v>
       </c>
       <c r="L13">
-        <v>0.2197878838465357</v>
+        <v>0.1424534707220459</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.921223248066269</v>
+        <v>0.9520443034580239</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2679379259542998</v>
+        <v>0.3051393676308862</v>
       </c>
       <c r="D14">
-        <v>0.2319812875937544</v>
+        <v>0.2795238160188944</v>
       </c>
       <c r="E14">
-        <v>0.1746071506389271</v>
+        <v>0.1436189854544629</v>
       </c>
       <c r="F14">
-        <v>1.268205164143879</v>
+        <v>0.5431557424506863</v>
       </c>
       <c r="G14">
-        <v>0.6745106714419791</v>
+        <v>0.2559916160690747</v>
       </c>
       <c r="H14">
-        <v>0.7918169679747038</v>
+        <v>0.2188253704055541</v>
       </c>
       <c r="I14">
-        <v>0.8719677285981646</v>
+        <v>0.3597041853719318</v>
       </c>
       <c r="J14">
-        <v>0.1810725146284753</v>
+        <v>0.1032219966068837</v>
       </c>
       <c r="K14">
-        <v>3.030182795438918</v>
+        <v>8.375690539274103</v>
       </c>
       <c r="L14">
-        <v>0.2195464885191711</v>
+        <v>0.1408578104368203</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.927914102418057</v>
+        <v>0.9509977706416635</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2672010396673841</v>
+        <v>0.3022358374491887</v>
       </c>
       <c r="D15">
-        <v>0.2312492341394545</v>
+        <v>0.2768150191305523</v>
       </c>
       <c r="E15">
-        <v>0.1743575912654336</v>
+        <v>0.1424313330163862</v>
       </c>
       <c r="F15">
-        <v>1.26925669204212</v>
+        <v>0.5411330084958692</v>
       </c>
       <c r="G15">
-        <v>0.6754982249901147</v>
+        <v>0.2552376643274314</v>
       </c>
       <c r="H15">
-        <v>0.7928101035884154</v>
+        <v>0.2193621635117537</v>
       </c>
       <c r="I15">
-        <v>0.8727790221200493</v>
+        <v>0.3584956926444605</v>
       </c>
       <c r="J15">
-        <v>0.1810266562859653</v>
+        <v>0.1025917147588729</v>
       </c>
       <c r="K15">
-        <v>3.001046072724648</v>
+        <v>8.284876021321111</v>
       </c>
       <c r="L15">
-        <v>0.2194000729131744</v>
+        <v>0.1398837054750288</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.932055116634572</v>
+        <v>0.9504738760125377</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2629988245080881</v>
+        <v>0.2856573439772205</v>
       </c>
       <c r="D16">
-        <v>0.2270672053256817</v>
+        <v>0.2613341592129927</v>
       </c>
       <c r="E16">
-        <v>0.1729436781115936</v>
+        <v>0.1356644667570457</v>
       </c>
       <c r="F16">
-        <v>1.275532602605864</v>
+        <v>0.5301847718077326</v>
       </c>
       <c r="G16">
-        <v>0.6813375007756264</v>
+        <v>0.251451195968329</v>
       </c>
       <c r="H16">
-        <v>0.7986326391553575</v>
+        <v>0.2227328335850842</v>
       </c>
       <c r="I16">
-        <v>0.8776052582916307</v>
+        <v>0.3520305473460041</v>
       </c>
       <c r="J16">
-        <v>0.1807855376807623</v>
+        <v>0.099028523094006</v>
       </c>
       <c r="K16">
-        <v>2.833892050888267</v>
+        <v>7.764979157432151</v>
       </c>
       <c r="L16">
-        <v>0.2185832263646361</v>
+        <v>0.1343504094470376</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.956439083630769</v>
+        <v>0.9492177530506751</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2604393802764093</v>
+        <v>0.2755384037896818</v>
       </c>
       <c r="D17">
-        <v>0.2245134438115031</v>
+        <v>0.2518728101896954</v>
       </c>
       <c r="E17">
-        <v>0.1720908016090164</v>
+        <v>0.1315467419060319</v>
       </c>
       <c r="F17">
-        <v>1.279605652419029</v>
+        <v>0.5240231828118809</v>
       </c>
       <c r="G17">
-        <v>0.6850800849506271</v>
+        <v>0.2495878435093033</v>
       </c>
       <c r="H17">
-        <v>0.8023216711126508</v>
+        <v>0.2250557832131506</v>
       </c>
       <c r="I17">
-        <v>0.8807238696319999</v>
+        <v>0.3484613082752048</v>
       </c>
       <c r="J17">
-        <v>0.1806569854434343</v>
+        <v>0.09688462944453136</v>
       </c>
       <c r="K17">
-        <v>2.73118853664937</v>
+        <v>7.446454723937791</v>
       </c>
       <c r="L17">
-        <v>0.218101971043005</v>
+        <v>0.1309980522716785</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.971980358252154</v>
+        <v>0.9499529725434286</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2589740912657987</v>
+        <v>0.2697361829992957</v>
       </c>
       <c r="D18">
-        <v>0.2230489604604315</v>
+        <v>0.2464432398988095</v>
       </c>
       <c r="E18">
-        <v>0.1716056024062524</v>
+        <v>0.1291901352111182</v>
       </c>
       <c r="F18">
-        <v>1.282030258750986</v>
+        <v>0.5206756770169676</v>
       </c>
       <c r="G18">
-        <v>0.6872915613486441</v>
+        <v>0.2486783627540277</v>
       </c>
       <c r="H18">
-        <v>0.8044865185432002</v>
+        <v>0.2264826908716984</v>
       </c>
       <c r="I18">
-        <v>0.8825755878720614</v>
+        <v>0.3465489237470294</v>
       </c>
       <c r="J18">
-        <v>0.1805901719042424</v>
+        <v>0.09566639839832192</v>
       </c>
       <c r="K18">
-        <v>2.67205883873703</v>
+        <v>7.263380407393299</v>
       </c>
       <c r="L18">
-        <v>0.2178324785974155</v>
+        <v>0.1290847730620968</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.981133109289885</v>
+        <v>0.9509090310831283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2584791478608111</v>
+        <v>0.2677746396121137</v>
       </c>
       <c r="D19">
-        <v>0.2225538668063081</v>
+        <v>0.2446069315939923</v>
       </c>
       <c r="E19">
-        <v>0.1714422434624545</v>
+        <v>0.1283942070714197</v>
       </c>
       <c r="F19">
-        <v>1.282865249782496</v>
+        <v>0.5195753284844642</v>
       </c>
       <c r="G19">
-        <v>0.6880504260068534</v>
+        <v>0.2483976873102733</v>
       </c>
       <c r="H19">
-        <v>0.805226884624588</v>
+        <v>0.2269811399298334</v>
       </c>
       <c r="I19">
-        <v>0.8832125012119576</v>
+        <v>0.3459250701495193</v>
       </c>
       <c r="J19">
-        <v>0.1805687748197045</v>
+        <v>0.09525643031627595</v>
       </c>
       <c r="K19">
-        <v>2.652028824089371</v>
+        <v>7.201415494962532</v>
       </c>
       <c r="L19">
-        <v>0.2177424906725633</v>
+        <v>0.1284394765772134</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.984268774089514</v>
+        <v>0.9513224411161616</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2607111310356629</v>
+        <v>0.2766137054491935</v>
       </c>
       <c r="D20">
-        <v>0.2247848445274769</v>
+        <v>0.2528786923238471</v>
       </c>
       <c r="E20">
-        <v>0.1721810382065705</v>
+        <v>0.1319838479771676</v>
       </c>
       <c r="F20">
-        <v>1.279163592287553</v>
+        <v>0.5246585957708163</v>
       </c>
       <c r="G20">
-        <v>0.6846755884588021</v>
+        <v>0.2497692600216794</v>
       </c>
       <c r="H20">
-        <v>0.8019245151822147</v>
+        <v>0.2247990374180304</v>
       </c>
       <c r="I20">
-        <v>0.8803858869386119</v>
+        <v>0.3488265959877879</v>
       </c>
       <c r="J20">
-        <v>0.180669932711794</v>
+        <v>0.09711129822041897</v>
       </c>
       <c r="K20">
-        <v>2.742127469058005</v>
+        <v>7.480348034735925</v>
       </c>
       <c r="L20">
-        <v>0.2181524450155266</v>
+        <v>0.1313533606985828</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.970303827811094</v>
+        <v>0.9498190778989652</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2682916454542976</v>
+        <v>0.3065327951939878</v>
       </c>
       <c r="D21">
-        <v>0.2323325568076058</v>
+        <v>0.2808235318180863</v>
       </c>
       <c r="E21">
-        <v>0.1747271072168601</v>
+        <v>0.1441892080101539</v>
       </c>
       <c r="F21">
-        <v>1.267705352505686</v>
+        <v>0.5441373524189359</v>
       </c>
       <c r="G21">
-        <v>0.6740403002796924</v>
+        <v>0.2563628504822191</v>
       </c>
       <c r="H21">
-        <v>0.791343055291641</v>
+        <v>0.2185732836500378</v>
       </c>
       <c r="I21">
-        <v>0.8715818245037639</v>
+        <v>0.360292029684949</v>
       </c>
       <c r="J21">
-        <v>0.1810948880705681</v>
+        <v>0.1035251161391741</v>
       </c>
       <c r="K21">
-        <v>3.044151354184635</v>
+        <v>8.419248604178051</v>
       </c>
       <c r="L21">
-        <v>0.219617090925702</v>
+        <v>0.1413258069208041</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.925939941987352</v>
+        <v>0.9512806316877658</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2733058706101019</v>
+        <v>0.3262675149197207</v>
       </c>
       <c r="D22">
-        <v>0.2373034190599981</v>
+        <v>0.2992135626227821</v>
       </c>
       <c r="E22">
-        <v>0.1764383698591203</v>
+        <v>0.1522825648875816</v>
       </c>
       <c r="F22">
-        <v>1.26094704669557</v>
+        <v>0.5587787266960476</v>
       </c>
       <c r="G22">
-        <v>0.6676155587955819</v>
+        <v>0.2622608807714002</v>
       </c>
       <c r="H22">
-        <v>0.7848108787374883</v>
+        <v>0.2153774591648983</v>
       </c>
       <c r="I22">
-        <v>0.8663450121667964</v>
+        <v>0.3691526784171373</v>
       </c>
       <c r="J22">
-        <v>0.1814358827389668</v>
+        <v>0.1078615831446044</v>
       </c>
       <c r="K22">
-        <v>3.241000580089462</v>
+        <v>9.034495899786577</v>
       </c>
       <c r="L22">
-        <v>0.2206390863870595</v>
+        <v>0.1479887383347247</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.898854847197725</v>
+        <v>0.9574235007814735</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2706242473656744</v>
+        <v>0.3157171003075803</v>
       </c>
       <c r="D23">
-        <v>0.2346469451728836</v>
+        <v>0.2893860494322951</v>
       </c>
       <c r="E23">
-        <v>0.175520732192151</v>
+        <v>0.1479517581967187</v>
       </c>
       <c r="F23">
-        <v>1.264487207507251</v>
+        <v>0.5507813706465328</v>
       </c>
       <c r="G23">
-        <v>0.6709963325893185</v>
+        <v>0.2589603701286123</v>
       </c>
       <c r="H23">
-        <v>0.788262122751199</v>
+        <v>0.2169999946479635</v>
       </c>
       <c r="I23">
-        <v>0.8690926353940327</v>
+        <v>0.3642926343517914</v>
       </c>
       <c r="J23">
-        <v>0.1812481085413395</v>
+        <v>0.1055332778352565</v>
       </c>
       <c r="K23">
-        <v>3.135989379807597</v>
+        <v>8.705955999675211</v>
       </c>
       <c r="L23">
-        <v>0.2200877193873083</v>
+        <v>0.1444186689186893</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.913135721910223</v>
+        <v>0.9536480793343713</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2605882532905213</v>
+        <v>0.2761275141649406</v>
       </c>
       <c r="D24">
-        <v>0.2246621327041112</v>
+        <v>0.2524239023987604</v>
       </c>
       <c r="E24">
-        <v>0.1721402262547329</v>
+        <v>0.1317861990294382</v>
       </c>
       <c r="F24">
-        <v>1.279363189282414</v>
+        <v>0.5243707203297916</v>
       </c>
       <c r="G24">
-        <v>0.6848582750255119</v>
+        <v>0.2496867392470747</v>
       </c>
       <c r="H24">
-        <v>0.8021039324057213</v>
+        <v>0.2249148281582478</v>
       </c>
       <c r="I24">
-        <v>0.8805385058059514</v>
+        <v>0.3486610157856376</v>
       </c>
       <c r="J24">
-        <v>0.1806640571559228</v>
+        <v>0.09700877678860564</v>
       </c>
       <c r="K24">
-        <v>2.737182239279775</v>
+        <v>7.465024719107646</v>
       </c>
       <c r="L24">
-        <v>0.2181296033405218</v>
+        <v>0.1311926821774421</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.971061108641095</v>
+        <v>0.9498779550962979</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2500246725670792</v>
+        <v>0.2340983652437387</v>
       </c>
       <c r="D25">
-        <v>0.2140595976431285</v>
+        <v>0.2130180133939916</v>
       </c>
       <c r="E25">
-        <v>0.1686986776733015</v>
+        <v>0.114794406252404</v>
       </c>
       <c r="F25">
-        <v>1.2985397488901</v>
+        <v>0.5033126739841407</v>
       </c>
       <c r="G25">
-        <v>0.7020590035659353</v>
+        <v>0.2458149694052807</v>
       </c>
       <c r="H25">
-        <v>0.8186788634416473</v>
+        <v>0.2368915710508404</v>
       </c>
       <c r="I25">
-        <v>0.8951007145294376</v>
+        <v>0.3371146458402166</v>
       </c>
       <c r="J25">
-        <v>0.1803066262632598</v>
+        <v>0.0883764734427146</v>
       </c>
       <c r="K25">
-        <v>2.304828220775619</v>
+        <v>6.131328253492654</v>
       </c>
       <c r="L25">
-        <v>0.2162972439707005</v>
+        <v>0.1174899101394544</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.041714757884634</v>
+        <v>0.9659738650658909</v>
       </c>
     </row>
   </sheetData>
